--- a/sih25/ideas.xlsx
+++ b/sih25/ideas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sih\SIH25_prep\sih25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD81EB1-824B-420C-837C-0563A2FB015C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69327E0D-AC42-4451-8C44-A362683DBD28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>Pblm No.</t>
   </si>
@@ -40,6 +40,60 @@
   </si>
   <si>
     <t>Jaya &amp; KN</t>
+  </si>
+  <si>
+    <t>SIH25013</t>
+  </si>
+  <si>
+    <t>SIH25015</t>
+  </si>
+  <si>
+    <t>SIH25025</t>
+  </si>
+  <si>
+    <t>SIH25026</t>
+  </si>
+  <si>
+    <t>SIH25036</t>
+  </si>
+  <si>
+    <t>SIH25047</t>
+  </si>
+  <si>
+    <t>SIH25050</t>
+  </si>
+  <si>
+    <t>SIH25051</t>
+  </si>
+  <si>
+    <t>SIH25056</t>
+  </si>
+  <si>
+    <t>SIH25063</t>
+  </si>
+  <si>
+    <t>SIH25070</t>
+  </si>
+  <si>
+    <t>SIH25071</t>
+  </si>
+  <si>
+    <t>SIH25082</t>
+  </si>
+  <si>
+    <t>SIH25086</t>
+  </si>
+  <si>
+    <t>SIH25094</t>
+  </si>
+  <si>
+    <t>SIH25102</t>
+  </si>
+  <si>
+    <t>SIH25107</t>
+  </si>
+  <si>
+    <t>SIH25108</t>
   </si>
 </sst>
 </file>
@@ -360,7 +414,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -385,144 +439,144 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>36</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>47</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>50</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>51</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>56</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>63</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>70</v>
-      </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>71</v>
+      <c r="A13" t="s">
+        <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>81</v>
+      <c r="A14" t="s">
+        <v>17</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>86</v>
+      <c r="A15" t="s">
+        <v>18</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>89</v>
+      <c r="A16" t="s">
+        <v>19</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>97</v>
+      <c r="A17" t="s">
+        <v>20</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>100</v>
+      <c r="A18" t="s">
+        <v>21</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>101</v>
+      <c r="A19" t="s">
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>

--- a/sih25/ideas.xlsx
+++ b/sih25/ideas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sih\SIH25_prep\sih25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69327E0D-AC42-4451-8C44-A362683DBD28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604F0D59-5269-44A4-9B8A-EFD896759400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>Pblm No.</t>
   </si>
@@ -94,14 +94,46 @@
   </si>
   <si>
     <t>SIH25108</t>
+  </si>
+  <si>
+    <t>Jaya &amp; KN, Bhaveena</t>
+  </si>
+  <si>
+    <t>Jaya &amp; KN, Rep</t>
+  </si>
+  <si>
+    <t>SIH25024</t>
+  </si>
+  <si>
+    <t>Bhaveena</t>
+  </si>
+  <si>
+    <t>SIH25068</t>
+  </si>
+  <si>
+    <t>SIH25104</t>
+  </si>
+  <si>
+    <t>Rep</t>
+  </si>
+  <si>
+    <t>Jaya &amp; KN, Bhaveena, Rep</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -129,8 +161,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,30 +444,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" customWidth="1"/>
     <col min="3" max="3" width="18.21875" customWidth="1"/>
     <col min="4" max="4" width="66.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -451,20 +484,20 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -472,23 +505,23 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -496,7 +529,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -504,7 +537,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -512,7 +545,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -520,7 +553,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -528,15 +561,15 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -544,7 +577,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -552,7 +585,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
@@ -560,7 +593,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
@@ -568,21 +601,46 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
-        <v>4</v>
+      <c r="B22" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sih25/ideas.xlsx
+++ b/sih25/ideas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sih\SIH25_prep\sih25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604F0D59-5269-44A4-9B8A-EFD896759400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7152FA-F239-4662-9695-964BAF48ED7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
   <si>
     <t>Pblm No.</t>
   </si>
@@ -81,9 +81,6 @@
     <t>SIH25082</t>
   </si>
   <si>
-    <t>SIH25086</t>
-  </si>
-  <si>
     <t>SIH25094</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
     <t>Jaya &amp; KN, Bhaveena</t>
   </si>
   <si>
-    <t>Jaya &amp; KN, Rep</t>
-  </si>
-  <si>
     <t>SIH25024</t>
   </si>
   <si>
@@ -117,7 +111,63 @@
     <t>Rep</t>
   </si>
   <si>
-    <t>Jaya &amp; KN, Bhaveena, Rep</t>
+    <t>The SIH problem asks us to identify design principles behind Kolam designs and recreate them.
+From the research paper (KolamNetV2), I found that a Kolam dataset already exists with various types and meanings.
+Our first step might be to create/expand the dataset if required, then use CNN or GAN models to classify and learn Kolam patterns.
+Once trained, the system can analyze an input Kolam and explain the design principles (symmetry, geometry, style).
+For generation, Kolams are mostly dots, lines, and symmetrical structures. So, graph structures + mathematical rules will help recreate or generate new ones.
+Features to add:
+Users upload a Kolam image → system identifies it and explains the type/principles.
+Users give a prompt or rough sketch → system generates a Kolam design.
+This will also bring in NLP, since prompts need to be converted into generation logic.</t>
+  </si>
+  <si>
+    <t>The problem statement focuses on continuous and frequent monitoring of Forest Rights Act (FRA) implementation.
+Our first step will be to build a WebGIS platform that is fully interactive for users.
+The platform should show:
+Areas with forest cover,
+Areas without forest cover,
+Reserved forest boundaries,
+Other FRA-related details.
+To keep it updated, we can connect with government portals and use frequent satellite images.
+Since these images need a lot of preprocessing, we will design an automated pipeline to handle updates.
+At the field level, district forest officers, police, and other officials should be able to geo-tag images and upload data directly into the system.</t>
+  </si>
+  <si>
+    <t>Jaya</t>
+  </si>
+  <si>
+    <t>KN</t>
+  </si>
+  <si>
+    <t>Core Features
+On first setup, once the user selects their city, the app will auto-download the static bus schedules → works even in offline mode.
+In online mode:
+Users can enter their destination.
+The app will show all buses covering that route, prioritizing those that stop directly at the location.
+It will also display non-stop buses as secondary options.
+AI-powered Innovation
+Use historical data + traffic trends to predict delays.
+Detect if a bus is stuck at a railway crossing or in heavy congestion.
+Provide alerts for accidents or traffic jams along the route.</t>
+  </si>
+  <si>
+    <t>Peak Hour Adaptation
+The system records and learns peak traffic patterns.
+During high congestion (e.g., office/school mornings, evening return), the busiest intersections will get extended green light durations.
+On public holidays or low-traffic days, the system reverts to normal signal cycles, avoiding unnecessary extensions.
+Live Camera Feed Analysis
+Using OpenCV + trained ML models, the system analyses real-time vehicle density at intersections.
+Based on reinforcement learning, it predicts the optimal direction to prioritize and switches signals accordingly.
+Continuous learning ensures the model improves its decision-making over time.
+Directional Priority
+Recognizes directional demand patterns:
+Morning: high outbound flow toward schools/offices.
+Evening: inbound flow toward residential areas.
+Signals adapt dynamically, giving priority to these flows while balancing secondary routes.</t>
+  </si>
+  <si>
+    <t>SIH25092</t>
   </si>
 </sst>
 </file>
@@ -161,9 +211,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,21 +511,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.88671875" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" customWidth="1"/>
-    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="5"/>
+    <col min="2" max="2" width="21.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="107.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -472,174 +541,214 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="288" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="374.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B15" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B23" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A10:A11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/sih25/ideas.xlsx
+++ b/sih25/ideas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sih\SIH25_prep\sih25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7152FA-F239-4662-9695-964BAF48ED7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43AAD581-75CB-4B31-9558-F0A1EC2BC637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
   <si>
     <t>Pblm No.</t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>SIH25108</t>
-  </si>
-  <si>
-    <t>Jaya &amp; KN, Bhaveena</t>
   </si>
   <si>
     <t>SIH25024</t>
@@ -168,6 +165,187 @@
   </si>
   <si>
     <t>SIH25092</t>
+  </si>
+  <si>
+    <t>Part 1 – Stress Relief &amp; Fun Zone
+A space filled with interactive mini-games, comedy clips, and short stress-buster videos.
+Designed to be universally accessible regardless of a student’s mental state — whether they’re stressed, tired, or simply bored, they can drop in and engage.
+Goal: Create an instant “reset button” for students whenever they feel mentally drained.
+Part 2 – Personalized Emotional Messaging
+At onboarding, the system learns about each student and begins tracking mood/emotional patterns.
+Based on real-time sentiment detection, the app sends 3 short messages daily tailored to the student’s state:
+Motivational nudges when they feel low.
+Humor or light jokes to spark a smile.
+Empathy-driven check-ins for loneliness or stress.
+Students can reply to these messages, making it an interactive loop rather than one-way communication.
+Part 3 – Chatbot + Expert Pipeline
+A conversational AI chatbot acts as a safe space for students to share thoughts they might hesitate to tell others.
+The chatbot is designed to:
+Listen without judgment.
+Extract key insights from conversations.
+Generate a summary report of concerning patterns.
+Experts/psychologists can then review these reports, and based on severity, students can be guided toward professional help in their area.
+Additional Features
+Mental health awareness videos to normalize discussions around stress, anxiety, and self-care.
+Simple DIY stress-relief techniques (breathing exercises, journaling prompts, etc.) presented in short, engaging formats.</t>
+  </si>
+  <si>
+    <t>Phase 1: Trip Setup
+When a user starts planning a new trip, the app begins with a short Q&amp;A:
+Destination
+Number of travelers
+Duration of trip
+Budget
+Activities they’d like to do
+Based on their answers, the app will recommend customized travel plans that fit their budget. For this, we’ll integrate data from trains, buses, flights, hotels, and local tourist attractions. Users can then either pick one of the suggested plans or build their own.
+Phase 2: Smart GPS Integration
+The app will use GPS tracking during the trip to:
+Confirm if users visited the suggested locations
+Collect feedback/ratings from them about each spot
+Refine future recommendations for other travelers
+This way, the system becomes smarter over time, learning from past trip data to improve suggestions.
+Phase 3: Social + Memories
+We’re also adding a social-media-like feature:
+At each stop, users can upload photos and notes from their journey
+The app will automatically create a trip memory log
+With permission, these trips can be suggested to other travelers as inspiration
+This makes the app not only a planning tool but also a memory keeper and a community-driven recommendation engine.</t>
+  </si>
+  <si>
+    <t>Phase 1: Trip Setup
+When a user begins planning a new trip, the app starts with a simple questionnaire covering:
+Destination
+Number of travelers
+Duration of trip
+Budget
+Preferred activities
+Based on these inputs, the system generates customized travel plans within the given budget. The recommendation engine integrates data from trains, buses, flights, hotels, and popular tourist attractions. Users can either choose one of the suggested itineraries or create their own personalized plan.
+Phase 2: Smart GPS Integration
+During the trip, the app leverages GPS tracking to:
+Verify whether users visited the suggested locations
+Prompt them to leave ratings and feedback for each stop
+Continuously refine and improve recommendations for future users
+Over time, this creates a self-learning ecosystem, where the app gets smarter with every trip recorded.
+Phase 3: Social + Memories
+To enhance user experience, we’re adding a social sharing and memory feature:
+At each stop, travelers can upload photos, notes, and highlights of their journey
+The app automatically generates a trip memory log for personal use
+With user consent, these logs can be shared as community trip inspirations for others
+This transforms the app from a simple planner into a hybrid platform for trip planning, memory preservation, and community-driven travel recommendations.</t>
+  </si>
+  <si>
+    <t>This project aims to blend Ayurvedic principles with modern dietary science. The platform will serve both dietitians and patients, each having personal accounts to access tailored suggestions, cuisines, and diet plans.
+Core Database Design
+Food Table: Ayurvedic properties (doshas, medicinal values, digestion type, taste out of six), modern nutrition data (calories, macros, micros).
+Patients Table: age, gender, health conditions.
+Diet Plans Table: generated meal plans linking both Ayurvedic and modern nutritional requirements.
+Logic Layer
+Match nutritional requirements (calories, macros) with Ayurvedic dietary rules.
+Suggest customized meal plans based on user health conditions, age, and gender.
+Features
+Personalized recommendations for users and dietitians.
+Exportable PDF reports and charts for easy understanding.
+Hybrid model combining traditional Ayurveda + modern nutrition for practical daily use.</t>
+  </si>
+  <si>
+    <t>We’re building a platform to bridge AYUSH (NAMASTE codes, 4,500+ terms) with ICD-11 (529 disorder categories + 196 TM2 patterns) using standard ontologies like SNOMED CT and LOINC. The goal is to enable multi-coding (Traditional + ICD-11) directly inside EMR workflows.
+Core Steps
+Requirements Gathering
+From user side: patient info, diagnoses, clinical observations.
+From system side: NAMASTE codes, ICD-11 TM2 lists.
+Mapping Layer
+Map NAMASTE + ICD-11 codes to FHIR resources (Condition, Observation, Procedure).
+Provide semantic context via SNOMED CT + LOINC.
+Security &amp; Identity
+Strong authentication with ABHA IDs for integration with India’s national health stack.
+Features
+Transform paper-based AYUSH records → digital formats.
+Unified search of disorders across NAMASTE + ICD-11.
+Support for international and national reporting standards.</t>
+  </si>
+  <si>
+    <t>We’re building a pipeline for real-time microplastic detection using optical sensing + ML classification.
+Workflow
+Optical Detection
+Components: LEDs/lasers (light source), diodes, spectrometers, cameras.
+Detection chamber with optional filtration stage to block large particles.
+Controlled via microcontrollers (e.g., Arduino) to capture and process signals.
+ML Classification
+Images/signals analyzed by trained ML models.
+Classifies captured objects as microplastic vs non-microplastic (dust, waste, etc.).
+Result Layer
+Outputs displayed on web dashboard / mobile app.
+Interactive mode: show captured images alongside classification results.
+Connectivity
+Microcontrollers manage sensor input &amp; communication with ML backend.
+Ensures synchronized data flow from optical sensors → ML model → UI.</t>
+  </si>
+  <si>
+    <t>We’re developing a mobile app + backend system to analyze data from 5,260 DWLR stations across India.
+Core Goals
+Collect &amp; integrate location + time-series groundwater data.
+Provide dynamic visualizations of water levels, fluctuations, and recharge rates.
+Enable role-based interfaces:
+Officials → policy &amp; planning.
+Farmers → water availability insights.
+Researchers → analytical tools &amp; trend detection.
+Key Features
+Trend &amp; recharge analysis with pattern detection.
+Notifications/alerts during dry seasons.
+Interactive maps &amp; charts for decision-making.
+Main Challenge
+Handling large-scale data ingestion + real-time analytics while tailoring insights for diverse users.</t>
+  </si>
+  <si>
+    <t>Core Goals
+Provide personalized career guidance based on interests, skills, and goals.
+Maintain a structured DB of users, careers, courses, institutions, and job roles.
+Key Features
+User onboarding &amp; profiling → match profiles with suitable careers and opportunities.
+Recommendation engine → hybrid approach using collaborative + content-based filtering, enhanced with NLP for parsing profiles and career descriptions.
+Mentor chat assistant → interactive support for users.
+API integrations → connect with external platforms (Coursera, LinkedIn, govt portals) for live courses, colleges, and job listings.
+Premium model → payment-enabled for advanced services.
+Main Challenge
+Balancing accurate recommendations with real-time integrations, while keeping the platform interactive and scalable.</t>
+  </si>
+  <si>
+    <t>Core Goals
+Enable multilingual support for regional + global languages.
+Integrate chatbot across govt portals, college websites, and WhatsApp.
+Key Features
+Language requirement analysis → identify most-used local languages.
+Conversational AI platform → NLP-driven chatbot with context handling and multilingual processing.
+Cross-platform deployment → integration with web, mobile apps, and messaging platforms.
+Main Challenge
+Ensuring accurate translation + context preservation across multiple languages while keeping real-time response performance.</t>
+  </si>
+  <si>
+    <t>Core Goals
+Pattern Extraction → Identify geometry, symmetry, repetition, graph &amp; matrix structures in Kolams.
+Image Processing → Use OpenCV (and similar libraries) to detect dots, lines, edges.
+Recreation → Once the pattern is recognized, regenerate designs programmatically using Python graphics libraries (e.g., Matplotlib, Turtle, Pygame).
+Key Features
+Rule-based pattern generation → for accuracy and cultural authenticity.
+Kolam categorization → support for dotted kolams, rangolis, 3D designs, muggulu, etc.
+Automated pattern generation → generate new unique kolams from learned rules.
+Main Challenge
+Capturing the hidden mathematical logic (graph theory + geometry) behind traditional freehand designs and reproducing them computationally.</t>
+  </si>
+  <si>
+    <t>Jaya, Sukil</t>
+  </si>
+  <si>
+    <t>SIH25044</t>
+  </si>
+  <si>
+    <t>Sukil</t>
+  </si>
+  <si>
+    <t>SIH25031</t>
+  </si>
+  <si>
+    <t>SIH25028</t>
   </si>
 </sst>
 </file>
@@ -511,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -545,133 +723,139 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="288" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="360" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
+      <c r="C6" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="374.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="B12" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A13" s="6"/>
       <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>15</v>
+      <c r="A16" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="374.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
       <c r="B17" s="2" t="s">
-        <v>4</v>
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>4</v>
@@ -679,7 +863,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>4</v>
@@ -687,67 +871,170 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C24" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
+      <c r="B29" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="6"/>
+      <c r="B32" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
+      <c r="B35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="3" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="288" x14ac:dyDescent="0.3">
+      <c r="A37" s="6"/>
+      <c r="B37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="316.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A10:A11"/>
+  <mergeCells count="10">
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A31:A32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
